--- a/data/trans_camb/P13A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P13A_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-30,75</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-26,19</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,6</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-30,75</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-28,06</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-19,93</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -739,47 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-1,1; 2,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-95,18; 9,33</t>
+          <t>-1,29; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-85,79; 21,61</t>
+          <t>-1,28; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 0,0</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-97,41; 5,65</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-88,91; 16,16</t>
+          <t>-0,51; 1,31</t>
         </is>
       </c>
     </row>
@@ -807,47 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>21,49%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-85,18%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-54,0%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-91,26%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-64,82%</t>
+          <t>28,55%</t>
         </is>
       </c>
     </row>
@@ -903,21 +834,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -932,22 +848,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -957,37 +873,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,26</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>10,25</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
+          <t>1,18</t>
         </is>
       </c>
     </row>
@@ -1010,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1025,37 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 3,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 27,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>3,46; 19,83</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 19,26</t>
+          <t>0,39; 2,44</t>
         </is>
       </c>
     </row>
@@ -1078,50 +964,35 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -1179,21 +1050,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-87,71</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-88,41</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-90,21</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-27,84</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-21,16</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-27,4</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-12,75</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-46,14</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-41,98</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-45,96</t>
+          <t>0,7</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 2,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-66,67; 100,0</t>
+          <t>-0,98; 0,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 8,69</t>
+          <t>-0,02; 2,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-92,93; 15,62</t>
+          <t>-0,85; 0,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-95,42; 8,07</t>
+          <t>-0,61; 0,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-79,26; 76,52</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-93,07; 8,74</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-88,35; 11,15</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-93,84; 7,93</t>
+          <t>-0,02; 1,65</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-87,71%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-88,41%</t>
+          <t>158,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-90,21%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>-11,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-87,11%</t>
+          <t>337,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-66,2%</t>
+          <t>-52,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-85,74%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-24,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-86,89%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-79,05%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-86,54%</t>
+          <t>233,11%</t>
         </is>
       </c>
     </row>
@@ -1452,22 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-93,96; —</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-97,46; —</t>
+          <t>-64,77; —</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36,38</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-15,17</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>36,38</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-8,85</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-17,14</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-15,4</t>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-63,29; 100,0</t>
+          <t>-0,42; 1,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-76,6; 44,96</t>
+          <t>-0,14; 2,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-86,22; 25,41</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-83,08; 27,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 2,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 0,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 1,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-63,29; 100,0</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-76,78; 32,94</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-84,38; 20,21</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-85,46; 22,0</t>
+          <t>0,46; 2,41</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>111,93%</t>
+          <t>132,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>304,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-46,69%</t>
+          <t>424,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-36,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>423,09%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>111,93%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-27,22%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-52,75%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-47,39%</t>
+          <t>812,28%</t>
         </is>
       </c>
     </row>
@@ -1731,21 +1482,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1765,57 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24,04</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>34,52</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-71,73</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-87,34</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-71,84</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-66,97</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>-39,63</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-57,29</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>-35,66</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -1833,57 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 2,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-93,19; -37,56</t>
+          <t>-1,52; 1,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -55,54</t>
+          <t>-1,2; 0,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-87,18; -55,73</t>
+          <t>-0,4; 1,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>-83,85; 38,46</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>-94,75; 14,34</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>-73,51; 34,5</t>
+          <t>-0,66; 0,99</t>
         </is>
       </c>
     </row>
@@ -1911,47 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
+          <t>70,09%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-5,07%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-71,73%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-87,34%</t>
-        </is>
-      </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-71,84%</t>
+          <t>114,88%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>-59,17%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>-85,55%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>-53,25%</t>
+          <t>38,46%</t>
         </is>
       </c>
     </row>
@@ -1989,37 +1680,22 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-93,19; -37,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -55,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-87,18; -55,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>-89,31; —</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>-74,05; —</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-36,48</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-36,48</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-19,44</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-30,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-36,48</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>-21,41</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-16,53</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>-13,05</t>
+          <t>0,82</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-2,09; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-2,26; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-83,14; 37,67</t>
+          <t>-0,93; 1,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-95,02; 12,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 3,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 0,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 1,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>-86,21; 28,25</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>-85,32; 27,95</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>-81,82; 37,21</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
     </row>
@@ -2182,52 +1828,37 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-53,28%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-84,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,36%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>-58,67%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>-45,31%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>-35,78%</t>
+          <t>422,77%</t>
         </is>
       </c>
     </row>
@@ -2283,21 +1914,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-13,51</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-26,23</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-30,2</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-25,86</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-24,73</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-26,4</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-24,48</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-21,37</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-18,26</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>-26,65</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>-26,97</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>-23,38</t>
+          <t>0,72</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 38,97</t>
+          <t>-0,36; 0,22</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-62,02; 7,34</t>
+          <t>-0,17; 0,57</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-68,34; -1,27</t>
+          <t>0,14; 1,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 3,14</t>
+          <t>-0,47; 0,03</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-63,46; 12,23</t>
+          <t>-0,17; 0,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-63,6; 1,73</t>
+          <t>0,38; 1,47</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-57,83; 2,27</t>
+          <t>-0,31; 0,06</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-53,23; 6,55</t>
+          <t>-0,07; 0,48</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 12,06</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>-51,17; -5,99</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>-52,41; -5,27</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>-47,65; -1,92</t>
+          <t>0,38; 1,14</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-33,93%</t>
+          <t>-30,87%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-65,89%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-75,85%</t>
+          <t>276,61%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-64,96%</t>
+          <t>-75,28%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-68,62%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-73,27%</t>
+          <t>393,53%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-67,93%</t>
+          <t>-54,91%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-59,32%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-48,47%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>-70,72%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>-71,59%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>-62,04%</t>
+          <t>339,82%</t>
         </is>
       </c>
     </row>
@@ -2521,71 +2092,63 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-91,07; 51,21</t>
+          <t>-67,0; 1096,53</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-90,66; -5,29</t>
+          <t>-9,19; 1419,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-85,77; 23,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,52; 693,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-92,44; 43,2</t>
+          <t>48,33; 1505,98</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-86,16; 26,67</t>
+          <t>-100,0; 100,04</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-81,04; 82,24</t>
+          <t>-30,09; 447,26</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 71,21</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>-86,91; -26,89</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>-85,04; -31,42</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>-79,41; -12,53</t>
+          <t>87,37; 1003,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
